--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,125 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T02NVR\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12210"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12210" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>assertMsg</t>
-  </si>
-  <si>
-    <t>p/f</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>测试通过</t>
-  </si>
-  <si>
-    <t>sui</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>suibian</t>
-  </si>
-  <si>
-    <t>hik12345.</t>
-  </si>
-  <si>
-    <t>用户名或密码错误!</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>预览</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>AttributeError("'NoneType' object has no attribute 'text'")</t>
-  </si>
-  <si>
-    <t>admin123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,6 +70,11 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -145,30 +86,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -434,107 +367,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="4" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="17.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="4" width="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>assertMsg</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>p/f</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>用户名不能为空</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>密码不能为空</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>suibian</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hik12345.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>用户名或密码错误!</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>预览</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>测试通过</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D2:D1048576" type="list">
       <formula1>"P,F"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>